--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B21D21A-1879-4922-AC39-69BFB0A8D8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28518100-5B61-464D-BB7B-D6CE8193FE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -2425,23 +2425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;p&gt;开通会员详情： </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;a href="http://www.izhaorui.cn/vip" target="_blank"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt;&lt;strong&gt;点击开通会员&lt;/strong&gt;&lt;/u&gt;&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;点击链接加群：&lt;span style="color: rgb(66, 144, 247);"&gt;&lt;u&gt; &lt;/u&gt;&lt;/span&gt;&lt;a href="https://qm.qq.com/cgi-bin/qm/qr?_wv=1027&amp;k=GZyydSOdrYq0hY-tPiDGeGNfQRQ3905-&amp;authKey=eiZEzg8ey6BRldoBpPtmgA8NOFNCTkQTG0iXHznncMHYSeZdV6rwth2k9WKJ1FrM&amp;noverify=0&amp;group_code=658227537" target="_blank"&gt;&lt;span style="color: rgb(66, 144, 247);"&gt;&lt;u&gt;658227537&lt;/u&gt;&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件存储分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2463,6 +2446,10 @@
   </si>
   <si>
     <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;开通会员详情： &lt;a href="http://www.izhaorui.cn/vip" target="_blank"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt;&lt;strong&gt;点击开通会员&lt;/strong&gt;&lt;/u&gt;&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;&lt;p&gt;点击链接加群：&lt;a href="https://www.izhaorui.cn/doc/contact.html" target="_blank"&gt;&lt;span style="color: rgb(66, 144, 247);"&gt;&lt;u&gt;点我加入群聊&lt;/u&gt;&lt;/span&gt;&lt;/a&gt; &lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2470,7 +2457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2510,14 +2497,6 @@
       <color rgb="FFE6DB74"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3240,7 +3219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
@@ -4588,13 +4567,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>720</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>722</v>
-      </c>
       <c r="E49" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H49" t="s">
         <v>509</v>
@@ -4611,13 +4590,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
+        <v>722</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>724</v>
-      </c>
       <c r="E50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H50" t="s">
         <v>509</v>
@@ -4963,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A140A180-7D1B-4334-9A7F-5459F016CE4B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4990,7 +4969,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -5001,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -11466,10 +11445,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>718</v>
+      </c>
+      <c r="C20" t="s">
         <v>719</v>
-      </c>
-      <c r="C20" t="s">
-        <v>720</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
